--- a/biology/Médecine/Martinho_do_Nascimento/Martinho_do_Nascimento.xlsx
+++ b/biology/Médecine/Martinho_do_Nascimento/Martinho_do_Nascimento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Martinho do Nascimento est un médecin et homme politique santoméen. Il est ministre à la Santé en 2008[1].
+Martinho do Nascimento est un médecin et homme politique santoméen. Il est ministre à la Santé en 2008.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 14 septembre 2015, Martinho do Nascimento est élu président de l'Orde des médecins de Sao Tomé-et-Principe (Ordem dos médicos de São Tomé e Príncipe) par le Conseil de l'Orde des médecins (Assembleia constituinte da Ordem dos médicos). La cérémonie d'ouverture est présidée par le Président en place, Manuel Pinto da Costa, et celle de clôture par le Premier ministre Patrice Trovoada[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14 septembre 2015, Martinho do Nascimento est élu président de l'Orde des médecins de Sao Tomé-et-Principe (Ordem dos médicos de São Tomé e Príncipe) par le Conseil de l'Orde des médecins (Assembleia constituinte da Ordem dos médicos). La cérémonie d'ouverture est présidée par le Président en place, Manuel Pinto da Costa, et celle de clôture par le Premier ministre Patrice Trovoada.
 </t>
         </is>
       </c>
